--- a/ig/ch-ips/StructureDefinition-ch-ips-immunization.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:26:13+00:00</t>
+    <t>2024-12-18T08:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -664,7 +664,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>

--- a/ig/ch-ips/StructureDefinition-ch-ips-immunization.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:08:56+00:00</t>
+    <t>2025-05-22T08:10:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -611,316 +611,206 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.id</t>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-ips/StructureDefinition/ch-ips-patient)
+</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>The patient who either received or did not receive the immunization.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+string</t>
+  </si>
+  <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the immunization was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>Indicates the source of a secondarily reported record</t>
+  </si>
+  <si>
+    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where immunization occurred</t>
+  </si>
+  <si>
+    <t>The service delivery location where the vaccine administration occurred.</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Vaccine manufacturer</t>
+  </si>
+  <si>
+    <t>Name of vaccine manufacturer.</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>Slice based on code value</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding:swissVaccines</t>
-  </si>
-  <si>
-    <t>swissVaccines</t>
-  </si>
-  <si>
-    <t>Swiss Vaccine Code</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding:snomedctVaccines</t>
-  </si>
-  <si>
-    <t>snomedctVaccines</t>
-  </si>
-  <si>
-    <t>Vaccine Code by SNOMED CT</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-vaccines-snomedct-vs</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-ips/StructureDefinition/ch-ips-patient)
-</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>The patient who either received or did not receive the immunization.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter</t>
-  </si>
-  <si>
-    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the immunization was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>Indicates the source of a secondarily reported record</t>
-  </si>
-  <si>
-    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where immunization occurred</t>
-  </si>
-  <si>
-    <t>The service delivery location where the vaccine administration occurred.</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Vaccine manufacturer</t>
-  </si>
-  <si>
-    <t>Name of vaccine manufacturer.</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
     <t>Vaccine lot number</t>
   </si>
   <si>
@@ -1044,7 +934,28 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1763,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1772,17 +1683,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.25" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.16015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1791,27 +1702,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.36328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.20703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.18359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="147.5546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="236.8828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="158.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="126.50390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="203.0859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="135.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3578,7 +3489,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>90</v>
@@ -3590,7 +3501,7 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>193</v>
@@ -3650,10 +3561,10 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>90</v>
@@ -3662,19 +3573,19 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -3682,21 +3593,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3708,17 +3619,15 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3755,43 +3664,43 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3799,10 +3708,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3810,10 +3719,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3825,20 +3734,18 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3874,25 +3781,25 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -3901,31 +3808,29 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3943,23 +3848,19 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3983,11 +3884,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4005,13 +3908,13 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -4023,13 +3926,13 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4037,14 +3940,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4065,20 +3966,18 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4102,11 +4001,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4124,13 +4025,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4142,13 +4043,13 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4156,10 +4057,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4179,23 +4080,21 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4219,13 +4118,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4243,7 +4142,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4261,13 +4160,13 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4275,10 +4174,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4286,7 +4185,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4298,16 +4197,16 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4358,10 +4257,10 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>90</v>
@@ -4373,16 +4272,16 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4390,10 +4289,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4416,13 +4315,13 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4473,7 +4372,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4488,27 +4387,27 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4516,7 +4415,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
@@ -4528,20 +4427,18 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4590,10 +4487,10 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>90</v>
@@ -4605,27 +4502,27 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4648,13 +4545,13 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4705,7 +4602,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4723,13 +4620,13 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4737,10 +4634,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4760,20 +4657,18 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4798,13 +4693,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4822,7 +4717,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4840,24 +4735,24 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4883,14 +4778,12 @@
         <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4915,13 +4808,11 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -4939,7 +4830,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4957,24 +4848,24 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4997,13 +4888,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5054,7 +4945,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5069,16 +4960,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5086,10 +4977,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5100,7 +4991,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5109,16 +5000,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5169,13 +5060,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5184,27 +5075,27 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5227,13 +5118,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5284,7 +5175,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5296,41 +5187,41 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5342,15 +5233,17 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5399,28 +5292,28 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5431,42 +5324,46 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5490,13 +5387,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5514,42 +5411,42 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5569,16 +5466,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5605,9 +5502,11 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="Z33" t="s" s="2">
         <v>314</v>
       </c>
@@ -5627,7 +5526,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5642,10 +5541,10 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>316</v>
@@ -5654,15 +5553,15 @@
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5670,7 +5569,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -5682,18 +5581,20 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5742,10 +5643,10 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>90</v>
@@ -5757,16 +5658,16 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5774,10 +5675,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5800,13 +5701,13 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5857,7 +5758,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -5872,13 +5773,13 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5889,10 +5790,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5903,7 +5804,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5915,13 +5816,13 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5948,13 +5849,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5972,28 +5873,28 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>197</v>
+        <v>338</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6004,14 +5905,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6030,17 +5931,15 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6089,7 +5988,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6101,16 +6000,16 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6121,21 +6020,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6147,24 +6046,24 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="R38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6208,25 +6107,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>133</v>
@@ -6240,10 +6139,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6254,7 +6153,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6263,16 +6162,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6299,13 +6198,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6323,13 +6222,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6338,13 +6237,13 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6355,10 +6254,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6366,10 +6265,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6378,20 +6277,18 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6440,31 +6337,31 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6472,10 +6369,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6486,7 +6383,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6495,16 +6392,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6555,28 +6452,28 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6587,14 +6484,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6613,15 +6510,17 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6646,13 +6545,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6670,7 +6569,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6682,16 +6581,16 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6702,14 +6601,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6722,22 +6621,26 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6785,7 +6688,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6797,10 +6700,10 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6817,10 +6720,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6837,30 +6740,26 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>376</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6904,7 +6803,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -6922,7 +6821,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>133</v>
@@ -6936,10 +6835,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6950,7 +6849,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -6962,13 +6861,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6995,13 +6894,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7019,13 +6918,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7051,10 +6950,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7065,7 +6964,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7077,13 +6976,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7134,25 +7033,25 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>386</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>133</v>
@@ -7166,10 +7065,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7192,13 +7091,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>194</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>195</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7249,7 +7148,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>196</v>
+        <v>372</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7261,16 +7160,16 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7281,14 +7180,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7307,17 +7206,15 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>199</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7342,13 +7239,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7366,7 +7263,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>202</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7378,16 +7275,16 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7398,46 +7295,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7461,13 +7354,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7485,19 +7378,19 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7517,10 +7410,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7531,7 +7424,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7543,15 +7436,17 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7600,13 +7495,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7618,10 +7513,10 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>133</v>
+        <v>392</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7632,10 +7527,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7658,13 +7553,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7715,7 +7610,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7727,7 +7622,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -7736,7 +7631,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7747,21 +7642,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7773,15 +7668,17 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7830,28 +7727,28 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>397</v>
+        <v>303</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7862,42 +7759,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -7945,25 +7846,25 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>133</v>
@@ -7977,10 +7878,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7991,7 +7892,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8003,13 +7904,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8036,13 +7937,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8060,13 +7961,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8078,10 +7979,10 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8092,10 +7993,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8118,13 +8019,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>174</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8151,13 +8052,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8175,7 +8076,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8193,10 +8094,10 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>133</v>
+        <v>405</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8207,10 +8108,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8221,7 +8122,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8233,17 +8134,15 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8292,13 +8191,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8310,10 +8209,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8324,10 +8223,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8338,7 +8237,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8350,13 +8249,13 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>194</v>
+        <v>412</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>195</v>
+        <v>413</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8407,19 +8306,19 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>196</v>
+        <v>411</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -8428,7 +8327,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8439,21 +8338,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8465,17 +8364,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8524,19 +8421,19 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -8545,7 +8442,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8556,14 +8453,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>334</v>
+        <v>149</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8576,26 +8473,24 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8643,7 +8538,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -8664,7 +8559,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8675,42 +8570,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8758,28 +8657,28 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>308</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8790,10 +8689,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8816,13 +8715,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>430</v>
+        <v>255</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8873,7 +8772,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -8891,10 +8790,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>434</v>
+        <v>133</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -8905,10 +8804,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8931,13 +8830,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8988,7 +8887,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9006,10 +8905,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>439</v>
+        <v>133</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9020,10 +8919,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9046,13 +8945,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>325</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9079,13 +8978,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9103,7 +9002,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9135,10 +9034,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9146,7 +9045,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>90</v>
@@ -9161,15 +9060,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>193</v>
+        <v>429</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9218,10 +9119,10 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>196</v>
+        <v>428</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>90</v>
@@ -9230,7 +9131,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -9239,7 +9140,7 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9250,21 +9151,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9276,16 +9177,16 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>199</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>200</v>
+        <v>435</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>152</v>
+        <v>432</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9335,19 +9236,19 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>202</v>
+        <v>433</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -9356,710 +9257,12 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/ig/ch-ips/StructureDefinition-ch-ips-immunization.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-immunization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T08:10:43+00:00</t>
+    <t>2025-12-16T12:02:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -575,7 +575,7 @@
     <t>The reason why a vaccine was not administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -751,7 +751,7 @@
     <t>The source of the data for a record which is not from a primary source.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
@@ -760,7 +760,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -785,7 +785,7 @@
     <t>Immunization.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>The site at which the vaccine was administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site|4.0.1</t>
   </si>
   <si>
     <t>RXR-2</t>
@@ -893,7 +893,7 @@
     <t>Immunization.doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -990,7 +990,7 @@
     <t>The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1058,7 +1058,7 @@
     <t>The reason why a vaccine was administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1070,7 +1070,7 @@
     <t>Immunization.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1110,7 +1110,7 @@
     <t>The reason why a dose is considered to be subpotent.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason|4.0.1</t>
   </si>
   <si>
     <t>Immunization.education</t>
@@ -1192,7 +1192,7 @@
     <t>The patient's eligibility for a vaccation program.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility|4.0.1</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 64994-7</t>
@@ -1210,7 +1210,7 @@
     <t>The source of funding used to purchase the vaccine administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source|4.0.1</t>
   </si>
   <si>
     <t>Immunization.reaction</t>
@@ -1255,7 +1255,7 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|4.0.1)
 </t>
   </si>
   <si>
